--- a/fastqFiles/fastq_spikein_hbrown_11.20.19.xlsx
+++ b/fastqFiles/fastq_spikein_hbrown_11.20.19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/Desktop/4c metadata sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE86B21A-9A67-7340-BF34-9920DA7B7B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA228C33-C199-F746-99D2-D2A7B6F0B7FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="7880" windowWidth="19200" windowHeight="11520" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
+    <workbookView xWindow="1840" yWindow="1220" windowWidth="26900" windowHeight="16060" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="16">
   <si>
     <t>libraryDate</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">spikein </t>
+  </si>
+  <si>
+    <t>08.29.19</t>
   </si>
 </sst>
 </file>
@@ -145,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -163,6 +166,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CA217D-0C43-0B40-A462-5F05C8B33EE8}">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,9 +541,9 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -556,16 +560,16 @@
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6">
-        <v>14.2</v>
-      </c>
-      <c r="J2" s="6">
-        <v>14.2</v>
-      </c>
-      <c r="K2" s="7">
-        <v>4639</v>
-      </c>
-      <c r="L2" s="8"/>
+      <c r="I2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9">
+        <v>9742</v>
+      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -581,9 +585,9 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -598,18 +602,33 @@
         <v>14</v>
       </c>
       <c r="I3">
-        <v>6.11</v>
-      </c>
-      <c r="J3">
-        <v>6.11</v>
-      </c>
-      <c r="K3">
-        <v>7731</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
+        <v>24.5</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>6399</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -624,18 +643,33 @@
         <v>14</v>
       </c>
       <c r="I4">
-        <v>98.4</v>
-      </c>
-      <c r="J4">
-        <v>98.4</v>
-      </c>
-      <c r="K4">
-        <v>8001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
+        <v>4.84</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>9329</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -650,18 +684,33 @@
         <v>14</v>
       </c>
       <c r="I5">
-        <v>52.7</v>
-      </c>
-      <c r="J5">
-        <v>52.7</v>
-      </c>
-      <c r="K5">
-        <v>9027</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
+        <v>2.66</v>
+      </c>
+      <c r="J5" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="K5" s="9">
+        <v>9427</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -676,18 +725,33 @@
         <v>14</v>
       </c>
       <c r="I6">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="J6">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="K6">
-        <v>5189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
+        <v>10.6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>2467</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -702,18 +766,33 @@
         <v>14</v>
       </c>
       <c r="I7">
-        <v>74.5</v>
-      </c>
-      <c r="J7">
-        <v>74.5</v>
-      </c>
-      <c r="K7">
-        <v>7436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
+        <v>3.86</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="K7" s="9">
+        <v>9241</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -728,18 +807,33 @@
         <v>14</v>
       </c>
       <c r="I8">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="J8">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="K8">
-        <v>11846</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="J8" s="8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="9">
+        <v>13103</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -754,18 +848,33 @@
         <v>14</v>
       </c>
       <c r="I9">
-        <v>32.6</v>
-      </c>
-      <c r="J9">
-        <v>32.6</v>
-      </c>
-      <c r="K9">
-        <v>8791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="J9" s="8">
+        <v>5</v>
+      </c>
+      <c r="K9" s="9">
+        <v>7234</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -780,18 +889,33 @@
         <v>14</v>
       </c>
       <c r="I10">
-        <v>119</v>
-      </c>
-      <c r="J10">
-        <v>119</v>
-      </c>
-      <c r="K10">
-        <v>8673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>6575</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -806,18 +930,33 @@
         <v>14</v>
       </c>
       <c r="I11">
-        <v>64.7</v>
-      </c>
-      <c r="J11">
-        <v>64.7</v>
-      </c>
-      <c r="K11">
-        <v>9116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9">
+        <v>5806</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -832,18 +971,33 @@
         <v>14</v>
       </c>
       <c r="I12">
-        <v>62.4</v>
-      </c>
-      <c r="J12">
-        <v>62.4</v>
-      </c>
-      <c r="K12">
-        <v>9019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
+        <v>1.71</v>
+      </c>
+      <c r="J12" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="K12" s="9">
+        <v>5551</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -858,18 +1012,33 @@
         <v>14</v>
       </c>
       <c r="I13">
-        <v>118</v>
-      </c>
-      <c r="J13">
-        <v>118</v>
-      </c>
-      <c r="K13">
-        <v>7869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
+        <v>14.2</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
+        <v>5107</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -884,18 +1053,33 @@
         <v>14</v>
       </c>
       <c r="I14">
-        <v>2.94</v>
-      </c>
-      <c r="J14">
-        <v>2.94</v>
-      </c>
-      <c r="K14">
-        <v>9704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
+        <v>2.38</v>
+      </c>
+      <c r="J14" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="K14" s="9">
+        <v>6683</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -910,18 +1094,33 @@
         <v>14</v>
       </c>
       <c r="I15">
-        <v>5.9</v>
-      </c>
-      <c r="J15">
-        <v>5.9</v>
-      </c>
-      <c r="K15">
-        <v>10195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
+        <v>4.09</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K15" s="9">
+        <v>6586</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -936,18 +1135,33 @@
         <v>14</v>
       </c>
       <c r="I16">
-        <v>30.6</v>
-      </c>
-      <c r="J16">
-        <v>30.6</v>
-      </c>
-      <c r="K16">
-        <v>13399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
+        <v>9.99</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <v>7064</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -962,18 +1176,33 @@
         <v>14</v>
       </c>
       <c r="I17">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="J17">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="K17">
-        <v>17433</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>12</v>
+        <v>25.4</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9">
+        <v>6276</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -988,18 +1217,33 @@
         <v>14</v>
       </c>
       <c r="I18">
-        <v>15.2</v>
-      </c>
-      <c r="J18">
-        <v>15.2</v>
-      </c>
-      <c r="K18">
-        <v>21934</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <v>9091</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1014,18 +1258,33 @@
         <v>14</v>
       </c>
       <c r="I19">
-        <v>36.4</v>
-      </c>
-      <c r="J19">
-        <v>36.4</v>
-      </c>
-      <c r="K19">
-        <v>18925</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>12</v>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J19" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="K19" s="9">
+        <v>36876</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -1040,18 +1299,33 @@
         <v>14</v>
       </c>
       <c r="I20">
-        <v>12.9</v>
-      </c>
-      <c r="J20">
-        <v>12.9</v>
-      </c>
-      <c r="K20">
-        <v>6249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
+        <v>21.3</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2186</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -1066,18 +1340,33 @@
         <v>14</v>
       </c>
       <c r="I21">
-        <v>1.72</v>
-      </c>
-      <c r="J21">
-        <v>1.72</v>
-      </c>
-      <c r="K21">
-        <v>24244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>12</v>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>284</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1092,18 +1381,33 @@
         <v>14</v>
       </c>
       <c r="I22">
-        <v>2.78</v>
-      </c>
-      <c r="J22">
-        <v>2.78</v>
-      </c>
-      <c r="K22">
-        <v>10087</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="J22" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K22" s="8">
+        <v>660</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -1118,18 +1422,33 @@
         <v>14</v>
       </c>
       <c r="I23">
-        <v>1.02</v>
-      </c>
-      <c r="J23">
-        <v>1.02</v>
-      </c>
-      <c r="K23">
-        <v>18673</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="J23" s="8">
+        <v>5</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1672</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -1144,18 +1463,33 @@
         <v>14</v>
       </c>
       <c r="I24">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="J24">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="K24">
-        <v>32110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>12</v>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="J24" s="8">
+        <v>5</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1754</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -1170,18 +1504,33 @@
         <v>14</v>
       </c>
       <c r="I25">
-        <v>2.19</v>
-      </c>
-      <c r="J25">
-        <v>2.19</v>
-      </c>
-      <c r="K25">
-        <v>9813</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>12</v>
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="J25" s="8">
+        <v>5</v>
+      </c>
+      <c r="K25" s="9">
+        <v>9573</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -1196,18 +1545,33 @@
         <v>14</v>
       </c>
       <c r="I26">
-        <v>39</v>
-      </c>
-      <c r="J26">
-        <v>39</v>
-      </c>
-      <c r="K26">
-        <v>19977</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>12</v>
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="J26" s="8">
+        <v>5</v>
+      </c>
+      <c r="K26" s="9">
+        <v>67634</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -1222,42 +1586,75 @@
         <v>14</v>
       </c>
       <c r="I27">
-        <v>1.47</v>
-      </c>
-      <c r="J27">
-        <v>1.47</v>
-      </c>
-      <c r="K27">
-        <v>9889</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28">
-        <v>4036</v>
-      </c>
-      <c r="H28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="J28">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="K28">
-        <v>4491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="J27" s="8">
+        <v>5</v>
+      </c>
+      <c r="K27" s="9">
+        <v>11648</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4036</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="J28" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="K28" s="7">
+        <v>4639</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1265,7 +1662,7 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>4036</v>
@@ -1274,16 +1671,16 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.17199999999999999</v>
+        <v>6.11</v>
       </c>
       <c r="J29">
-        <v>0.17199999999999999</v>
+        <v>6.11</v>
       </c>
       <c r="K29">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>7731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1291,7 +1688,7 @@
         <v>13</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>4036</v>
@@ -1300,16 +1697,16 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.27800000000000002</v>
+        <v>98.4</v>
       </c>
       <c r="J30">
-        <v>0.27800000000000002</v>
+        <v>98.4</v>
       </c>
       <c r="K30">
-        <v>3965</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1317,7 +1714,7 @@
         <v>13</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>4036</v>
@@ -1326,16 +1723,16 @@
         <v>14</v>
       </c>
       <c r="I31">
-        <v>0.54500000000000004</v>
+        <v>52.7</v>
       </c>
       <c r="J31">
-        <v>0.54500000000000004</v>
+        <v>52.7</v>
       </c>
       <c r="K31">
-        <v>22688</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9027</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1343,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>4036</v>
@@ -1352,13 +1749,13 @@
         <v>14</v>
       </c>
       <c r="I32">
-        <v>3.09</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="J32">
-        <v>3.09</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="K32">
-        <v>38923</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1369,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>4036</v>
@@ -1378,13 +1775,13 @@
         <v>14</v>
       </c>
       <c r="I33">
-        <v>1.21</v>
+        <v>74.5</v>
       </c>
       <c r="J33">
-        <v>1.21</v>
+        <v>74.5</v>
       </c>
       <c r="K33">
-        <v>17378</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1395,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>4036</v>
@@ -1404,13 +1801,13 @@
         <v>14</v>
       </c>
       <c r="I34">
-        <v>1.54</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="J34">
-        <v>1.54</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="K34">
-        <v>45855</v>
+        <v>11846</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1421,7 +1818,7 @@
         <v>13</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D35">
         <v>4036</v>
@@ -1430,13 +1827,13 @@
         <v>14</v>
       </c>
       <c r="I35">
-        <v>0.41</v>
+        <v>32.6</v>
       </c>
       <c r="J35">
-        <v>0.41</v>
+        <v>32.6</v>
       </c>
       <c r="K35">
-        <v>502</v>
+        <v>8791</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1447,7 +1844,7 @@
         <v>13</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>4036</v>
@@ -1456,13 +1853,13 @@
         <v>14</v>
       </c>
       <c r="I36">
-        <v>0.45</v>
+        <v>119</v>
       </c>
       <c r="J36">
-        <v>0.45</v>
+        <v>119</v>
       </c>
       <c r="K36">
-        <v>1714</v>
+        <v>8673</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1473,21 +1870,697 @@
         <v>13</v>
       </c>
       <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>4036</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <v>64.7</v>
+      </c>
+      <c r="J37">
+        <v>64.7</v>
+      </c>
+      <c r="K37">
+        <v>9116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>4036</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>62.4</v>
+      </c>
+      <c r="J38">
+        <v>62.4</v>
+      </c>
+      <c r="K38">
+        <v>9019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>4036</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39">
+        <v>118</v>
+      </c>
+      <c r="J39">
+        <v>118</v>
+      </c>
+      <c r="K39">
+        <v>7869</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>4036</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40">
+        <v>2.94</v>
+      </c>
+      <c r="J40">
+        <v>2.94</v>
+      </c>
+      <c r="K40">
+        <v>9704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>4036</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41">
+        <v>5.9</v>
+      </c>
+      <c r="J41">
+        <v>5.9</v>
+      </c>
+      <c r="K41">
+        <v>10195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>4036</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42">
+        <v>30.6</v>
+      </c>
+      <c r="J42">
+        <v>30.6</v>
+      </c>
+      <c r="K42">
+        <v>13399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>4036</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="J43">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K43">
+        <v>17433</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>4036</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <v>15.2</v>
+      </c>
+      <c r="J44">
+        <v>15.2</v>
+      </c>
+      <c r="K44">
+        <v>21934</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>4036</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45">
+        <v>36.4</v>
+      </c>
+      <c r="J45">
+        <v>36.4</v>
+      </c>
+      <c r="K45">
+        <v>18925</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>4036</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46">
+        <v>12.9</v>
+      </c>
+      <c r="J46">
+        <v>12.9</v>
+      </c>
+      <c r="K46">
+        <v>6249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>4036</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47">
+        <v>1.72</v>
+      </c>
+      <c r="J47">
+        <v>1.72</v>
+      </c>
+      <c r="K47">
+        <v>24244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>4036</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <v>2.78</v>
+      </c>
+      <c r="J48">
+        <v>2.78</v>
+      </c>
+      <c r="K48">
+        <v>10087</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>4036</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49">
+        <v>1.02</v>
+      </c>
+      <c r="J49">
+        <v>1.02</v>
+      </c>
+      <c r="K49">
+        <v>18673</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>4036</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="J50">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="K50">
+        <v>32110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>4036</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51">
+        <v>2.19</v>
+      </c>
+      <c r="J51">
+        <v>2.19</v>
+      </c>
+      <c r="K51">
+        <v>9813</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>25</v>
+      </c>
+      <c r="D52">
+        <v>4036</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52">
+        <v>39</v>
+      </c>
+      <c r="J52">
+        <v>39</v>
+      </c>
+      <c r="K52">
+        <v>19977</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>4036</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53">
+        <v>1.47</v>
+      </c>
+      <c r="J53">
+        <v>1.47</v>
+      </c>
+      <c r="K53">
+        <v>9889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>27</v>
+      </c>
+      <c r="D54">
+        <v>4036</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="J54">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="K54">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>28</v>
+      </c>
+      <c r="D55">
+        <v>4036</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="J55">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="K55">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>4036</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="J56">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="K56">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>4036</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="J57">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="K57">
+        <v>22688</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58">
+        <v>31</v>
+      </c>
+      <c r="D58">
+        <v>4036</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58">
+        <v>3.09</v>
+      </c>
+      <c r="J58">
+        <v>3.09</v>
+      </c>
+      <c r="K58">
+        <v>38923</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>33</v>
+      </c>
+      <c r="D59">
+        <v>4036</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59">
+        <v>1.21</v>
+      </c>
+      <c r="J59">
+        <v>1.21</v>
+      </c>
+      <c r="K59">
+        <v>17378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>34</v>
+      </c>
+      <c r="D60">
+        <v>4036</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60">
+        <v>1.54</v>
+      </c>
+      <c r="J60">
+        <v>1.54</v>
+      </c>
+      <c r="K60">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>35</v>
+      </c>
+      <c r="D61">
+        <v>4036</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61">
+        <v>0.41</v>
+      </c>
+      <c r="J61">
+        <v>0.41</v>
+      </c>
+      <c r="K61">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>36</v>
+      </c>
+      <c r="D62">
+        <v>4036</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62">
+        <v>0.45</v>
+      </c>
+      <c r="J62">
+        <v>0.45</v>
+      </c>
+      <c r="K62">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
         <v>37</v>
       </c>
-      <c r="D37">
-        <v>4036</v>
-      </c>
-      <c r="H37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37">
+      <c r="D63">
+        <v>4036</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63">
         <v>0.56399999999999995</v>
       </c>
-      <c r="J37">
+      <c r="J63">
         <v>0.56399999999999995</v>
       </c>
-      <c r="K37">
+      <c r="K63">
         <v>644</v>
       </c>
     </row>
